--- a/data/dataframe/10076.xlsx
+++ b/data/dataframe/10076.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/new/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/xsec_JAM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D33F0A-4C2C-F645-884A-253C8C574A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23443F6-DBB5-2040-9827-F73D84E8C1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="format" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
